--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1329180.627205638</v>
+        <v>1323318.307170459</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9711448.04037456</v>
+        <v>9710268.081593724</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>134.7543338973778</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>147.1587965120371</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>73.09177164960495</v>
+        <v>9.110409776860221</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>101.4434259876337</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0.3984368312115407</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>335.2122228055248</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>60.87006305942413</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -914,7 +914,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>66.31620369264655</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>66.03149870010074</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>103.8812695548171</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>235.4551847859273</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>194.3509416654534</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,7 +1148,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>13.86039560144248</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>6.897481179122565</v>
+        <v>85.18277722849318</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>111.7023508160794</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>108.3319891119487</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1989136064501</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>94.38147173923295</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,19 +1765,19 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>19.51029450413476</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>61.81960433981941</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1346.281152812341</v>
+        <v>773.003811874391</v>
       </c>
       <c r="C2" t="n">
-        <v>1346.281152812341</v>
+        <v>773.003811874391</v>
       </c>
       <c r="D2" t="n">
-        <v>1197.635903810283</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1549.897808704472</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704472</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.9374095968</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523738</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523738</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="V2" t="n">
-        <v>1746.775898523738</v>
+        <v>1695.062614805963</v>
       </c>
       <c r="W2" t="n">
-        <v>1746.775898523738</v>
+        <v>1695.062614805963</v>
       </c>
       <c r="X2" t="n">
-        <v>1746.775898523738</v>
+        <v>1305.61000973902</v>
       </c>
       <c r="Y2" t="n">
-        <v>1746.775898523738</v>
+        <v>909.1193006596211</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021438</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C3" t="n">
-        <v>505.159187462236</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837163</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E3" t="n">
-        <v>375.0702200837163</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1402.159093172766</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1940.417878182858</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182858</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675978</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431051</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.5225785937683</v>
+        <v>397.7197479617325</v>
       </c>
       <c r="C4" t="n">
-        <v>301.5225785937683</v>
+        <v>227.5146300277218</v>
       </c>
       <c r="D4" t="n">
-        <v>301.5225785937683</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="E4" t="n">
-        <v>145.9637664529708</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="F4" t="n">
-        <v>145.9637664529708</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G4" t="n">
-        <v>145.9637664529708</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>535.6029008107853</v>
+        <v>582.9277666530338</v>
       </c>
       <c r="V4" t="n">
-        <v>535.6029008107853</v>
+        <v>582.9277666530338</v>
       </c>
       <c r="W4" t="n">
-        <v>535.6029008107853</v>
+        <v>582.9277666530338</v>
       </c>
       <c r="X4" t="n">
-        <v>301.5225785937683</v>
+        <v>582.9277666530338</v>
       </c>
       <c r="Y4" t="n">
-        <v>301.5225785937683</v>
+        <v>582.9277666530338</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>842.2263775214976</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="C5" t="n">
-        <v>842.2263775214976</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="D5" t="n">
-        <v>842.2263775214976</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="E5" t="n">
-        <v>842.2263775214976</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.706865059667</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606227</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.16969166784</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.16969166784</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="X5" t="n">
-        <v>1238.717086600896</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Y5" t="n">
-        <v>842.2263775214976</v>
+        <v>2075.162337816923</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K6" t="n">
-        <v>176.1237484101846</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>176.1237484101846</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202774</v>
+        <v>1047.956980597546</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.64131843037</v>
+        <v>1561.559659207235</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021351</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637618</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836526</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515168</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886235</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>659.5038901782084</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V7" t="n">
-        <v>393.5245449990326</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W7" t="n">
-        <v>110.1941429302103</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475497</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633846</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.196864978524</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C8" t="n">
-        <v>1212.021363481455</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
-        <v>1212.021363481455</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>503.6092283712875</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4841,13 +4841,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.196864978524</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1605.196864978524</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7856656383638</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.22271816768</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293022</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293022</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>3004.271952586837</v>
+        <v>2868.208848589677</v>
       </c>
       <c r="V11" t="n">
-        <v>3004.271952586837</v>
+        <v>2597.898314439389</v>
       </c>
       <c r="W11" t="n">
-        <v>3004.271952586837</v>
+        <v>2298.69555455387</v>
       </c>
       <c r="X11" t="n">
-        <v>2686.615622666088</v>
+        <v>2298.69555455387</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732883</v>
+        <v>1974.001120620665</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.744905612751</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.52287682331</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.043159414291</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>318.2838994630213</v>
+        <v>473.0040912619326</v>
       </c>
       <c r="C13" t="n">
-        <v>219.8750566752044</v>
+        <v>473.0040912619326</v>
       </c>
       <c r="D13" t="n">
-        <v>219.8750566752044</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752044</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752044</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G13" t="n">
         <v>123.4172779208438</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457678</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457735</v>
+        <v>988.1475398457737</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127917</v>
+        <v>793.9644698127918</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901633</v>
+        <v>582.4303428901636</v>
       </c>
       <c r="X13" t="n">
-        <v>469.599685500184</v>
+        <v>582.4303428901636</v>
       </c>
       <c r="Y13" t="n">
-        <v>318.2838994630213</v>
+        <v>473.0040912619326</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1684.000063606711</v>
+        <v>1357.33730510659</v>
       </c>
       <c r="C14" t="n">
-        <v>1684.000063606711</v>
+        <v>1035.958078755714</v>
       </c>
       <c r="D14" t="n">
-        <v>1370.355209969572</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="E14" t="n">
-        <v>1039.567960232311</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="F14" t="n">
-        <v>694.4697969084824</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G14" t="n">
-        <v>353.1033165426793</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2954.252057911387</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2655.049298025868</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2337.392968105119</v>
+        <v>2010.730209604998</v>
       </c>
       <c r="Y14" t="n">
-        <v>2012.698534171914</v>
+        <v>1686.035775671793</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5361,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.7345522742326</v>
+        <v>349.6018362700518</v>
       </c>
       <c r="C16" t="n">
-        <v>208.3257094864156</v>
+        <v>251.1929934822349</v>
       </c>
       <c r="D16" t="n">
-        <v>208.3257094864156</v>
+        <v>167.3561555309434</v>
       </c>
       <c r="E16" t="n">
-        <v>124.563172491812</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="F16" t="n">
-        <v>124.563172491812</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
         <v>62.11912770411553</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5470,16 +5470,16 @@
         <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127915</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="W16" t="n">
-        <v>582.430342890163</v>
+        <v>776.613412923145</v>
       </c>
       <c r="X16" t="n">
-        <v>420.14629581934</v>
+        <v>614.329365852322</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.14629581934</v>
+        <v>463.0135798151592</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.889542297544</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099302</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803418</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960414</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343054</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655146</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072227</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,16 +5771,16 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,13 +6148,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
         <v>806.6193906797589</v>
@@ -6166,31 +6166,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,13 +6297,13 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
         <v>393.1040050097767</v>
@@ -6312,16 +6312,16 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
         <v>393.1040050097767</v>
@@ -6549,16 +6549,16 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1690.805456896588</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2330.268861109033</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2770.308462001361</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055613</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898376</v>
+        <v>575.8353109291606</v>
       </c>
       <c r="N34" t="n">
-        <v>895.537627048117</v>
+        <v>870.6770655353528</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1033.381832577061</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6944,10 +6944,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,16 +6956,16 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,16 +7023,16 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,22 +7096,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222405</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343043</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655135</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072216</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7205,19 +7205,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7333,13 +7333,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
         <v>812.1990332879427</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,13 +7445,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7506,7 +7506,7 @@
         <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7631,16 +7631,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,10 +7682,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343043</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655135</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>664.3207371077253</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>213.3952764296698</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>539.0974448753154</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>574.7607069788174</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>658.4862820353993</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9563753499149</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>109.3071442178811</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837491</v>
+        <v>297.5876289994815</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886038</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,25 +8453,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.8528328367281</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>560.2818744604613</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>173.3576105420024</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9009,13 +9009,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9243,25 +9243,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.0381992661173</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,16 +9726,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6030013529515</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167031</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384012</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,7 +10671,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,10 +10680,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10911,16 +10911,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11154,10 +11154,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.0381992661173</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K45" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>175.2194086958929</v>
+        <v>96.93411264652225</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>48.95885578403534</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>41.47063906484239</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>27.56499392799223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>220.0982948823088</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>63.41461712052281</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33.67359662699757</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>851267.4223592973</v>
+        <v>850665.8747455369</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>851267.4223592973</v>
+        <v>850665.8747455369</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758860.0937365558</v>
+        <v>758860.0937365557</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>432797.2274240563</v>
       </c>
       <c r="C2" t="n">
-        <v>432797.2274240562</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="D2" t="n">
         <v>432797.2274240564</v>
@@ -26326,34 +26326,34 @@
         <v>382461.6562185611</v>
       </c>
       <c r="G2" t="n">
+        <v>432797.2274240561</v>
+      </c>
+      <c r="H2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="I2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="J2" t="n">
         <v>432797.2274240564</v>
       </c>
-      <c r="H2" t="n">
-        <v>432797.2274240562</v>
-      </c>
-      <c r="I2" t="n">
-        <v>432797.2274240564</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>432797.2274240563</v>
       </c>
-      <c r="K2" t="n">
-        <v>432797.2274240561</v>
-      </c>
       <c r="L2" t="n">
-        <v>432797.227424056</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="M2" t="n">
         <v>432797.2274240562</v>
       </c>
       <c r="N2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="O2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="P2" t="n">
-        <v>432797.2274240561</v>
+        <v>432797.2274240564</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.24177539673</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="F4" t="n">
         <v>99893.08150805102</v>
@@ -26439,13 +26439,13 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996333</v>
@@ -26457,7 +26457,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5037.52836198009</v>
+        <v>-1287.630161445602</v>
       </c>
       <c r="C6" t="n">
-        <v>177167.4199298758</v>
+        <v>172571.0268726096</v>
       </c>
       <c r="D6" t="n">
-        <v>171151.6182721027</v>
+        <v>163415.3290487111</v>
       </c>
       <c r="E6" t="n">
-        <v>117259.993536625</v>
+        <v>117050.2619899354</v>
       </c>
       <c r="F6" t="n">
-        <v>229382.5550106695</v>
+        <v>229172.82346398</v>
       </c>
       <c r="G6" t="n">
-        <v>179550.1345722217</v>
+        <v>179550.1345722213</v>
       </c>
       <c r="H6" t="n">
         <v>226975.4601089034</v>
       </c>
       <c r="I6" t="n">
-        <v>226975.4601089036</v>
+        <v>226975.4601089035</v>
       </c>
       <c r="J6" t="n">
-        <v>13933.54251161797</v>
+        <v>20449.82766619117</v>
       </c>
       <c r="K6" t="n">
-        <v>220735.6917061203</v>
+        <v>220735.6917061204</v>
       </c>
       <c r="L6" t="n">
-        <v>165553.102771499</v>
+        <v>161504.2655610271</v>
       </c>
       <c r="M6" t="n">
-        <v>184774.6306492802</v>
+        <v>183722.9356380921</v>
       </c>
       <c r="N6" t="n">
         <v>226975.4601089035</v>
       </c>
       <c r="O6" t="n">
-        <v>199207.7660661322</v>
+        <v>199207.7660661323</v>
       </c>
       <c r="P6" t="n">
-        <v>226975.4601089032</v>
+        <v>226975.4601089036</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431646</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.07030221924592</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>261.7354643569051</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>234.4279209834619</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.09571640609457</v>
+        <v>114.0770782788393</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>52.48033954048724</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.1859670093065</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27619,13 +27619,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>46.37449468997414</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>351.8554310258979</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>161.4998697153995</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>116.999671016706</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.7885616961714</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>204.2067479691675</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>249.4591561259415</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,10 +28761,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668787</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,17 +29220,17 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529465</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901124</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,10 +29779,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>81.10808140893289</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.27291196566568</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031303</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>94.97643844045274</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634528339</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,10 +30183,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30405,16 +30405,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30642,17 +30642,17 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L43" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,10 +30882,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>514.595685509998</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>64.2767850918857</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>446.7103228260036</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>482.0731480899286</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>508.7612304376721</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>250.3925379258185</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>19.71020888454772</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344372</v>
+        <v>205.2005069501696</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.7944296574907</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>467.8947524111493</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>86.27424572268772</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565495</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634528801</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257368</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,16 +36446,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>545.2308884987849</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047975</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272228</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495123</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,10 +37075,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>632.6241420600244</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.9855989767248</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>75.16693519537668</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>264.967166003105</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>259.3246879775316</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37391,7 +37391,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,10 +37400,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133831</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535426</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37874,10 +37874,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
